--- a/Doc/フローチャート.xlsx
+++ b/Doc/フローチャート.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1FB568-889E-4CA5-99BB-8905C9E83113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836DC682-23F2-4412-BE61-0F456162D42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="390" windowWidth="20370" windowHeight="15090" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
+    <workbookView xWindow="1950" yWindow="1110" windowWidth="20640" windowHeight="15090" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="フローチャート" sheetId="2" r:id="rId1"/>
@@ -5466,15 +5466,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>172693</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5489,8 +5489,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="409575" y="9239250"/>
-          <a:ext cx="2743200" cy="629893"/>
+          <a:off x="361950" y="8905876"/>
+          <a:ext cx="2743200" cy="514349"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOnlineStorage">
           <a:avLst/>
@@ -5526,7 +5526,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -5538,7 +5538,7 @@
             <a:t>ドローン</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -5550,7 +5550,7 @@
             <a:t>毎</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -5562,7 +5562,7 @@
             <a:t>位置</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -5573,7 +5573,7 @@
             </a:rPr>
             <a:t>ﾌｧｲﾙ</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200">
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -5586,7 +5586,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -5597,7 +5597,7 @@
             <a:t>d</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -5608,7 +5608,7 @@
             <a:t>m</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -5618,13 +5618,6 @@
             </a:rPr>
             <a:t>_Iti.csv</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5632,16 +5625,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>67297</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5652,15 +5645,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="62" idx="3"/>
-          <a:endCxn id="94" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2695575" y="9548813"/>
-          <a:ext cx="1143001" cy="5384"/>
+        <a:xfrm>
+          <a:off x="3200400" y="9420225"/>
+          <a:ext cx="638175" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5687,6 +5677,143 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="フローチャート: 記憶データ 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD471323-8AE0-4B6E-8934-583475E0227D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="9353550"/>
+          <a:ext cx="2743200" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOnlineStorage">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>差分</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ﾌｧｲﾙ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>x_y_sabun.csv</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6092,7 +6219,9 @@
   </sheetPr>
   <dimension ref="B1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
